--- a/tamu.xlsx
+++ b/tamu.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Farhan\Desktop\undangan_v2\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{A9A1FB97-A7E5-47F0-8062-6DF5F133CA6C}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{0BECBFB6-2549-4B95-A7FA-46B2E6C295BD}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12456" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -25,15 +25,21 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="3" uniqueCount="3">
-  <si>
-    <t>farhan</t>
-  </si>
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="5" uniqueCount="5">
   <si>
     <t>name</t>
   </si>
   <si>
     <t>link</t>
+  </si>
+  <si>
+    <t>Mohammad Farhan</t>
+  </si>
+  <si>
+    <t>GreenFox</t>
+  </si>
+  <si>
+    <t>Gersvecters</t>
   </si>
 </sst>
 </file>
@@ -351,10 +357,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:B2"/>
+  <dimension ref="A1:B4"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="B3" sqref="B3"/>
+      <selection activeCell="A5" sqref="A5"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -365,15 +371,25 @@
   <sheetData>
     <row r="1" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A1" t="s">
+        <v>0</v>
+      </c>
+      <c r="B1" t="s">
         <v>1</v>
-      </c>
-      <c r="B1" t="s">
-        <v>2</v>
       </c>
     </row>
     <row r="2" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A2" t="s">
-        <v>0</v>
+        <v>2</v>
+      </c>
+    </row>
+    <row r="3" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="4" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A4" t="s">
+        <v>4</v>
       </c>
     </row>
   </sheetData>
